--- a/SBUX.xlsx
+++ b/SBUX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8A51E-743E-4471-8020-588D37BDC4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016A432F-B6A6-4AA0-83DB-AFF88C8E83F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{07208231-CF03-47A7-8090-7977F3D32C54}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{07208231-CF03-47A7-8090-7977F3D32C54}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -183,13 +183,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -239,26 +245,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -596,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00EE4E1-62D9-4A81-B129-AEFFAEBF108F}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -619,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="2">
-        <v>97.02</v>
+        <v>87.85</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -627,10 +637,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="3">
-        <v>1135.9000000000001</v>
+        <v>1136.7</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>10</v>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -642,7 +652,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>110205.01800000001</v>
+        <v>99859.095000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -653,11 +663,11 @@
         <v>7</v>
       </c>
       <c r="J5" s="3">
-        <f>3671.4+285.8</f>
-        <v>3957.2000000000003</v>
+        <f>4172.6+333.3</f>
+        <v>4505.9000000000005</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>10</v>
+      <c r="K5" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -665,11 +675,11 @@
         <v>8</v>
       </c>
       <c r="J6" s="3">
-        <f>1249.2+14312.2</f>
-        <v>15561.400000000001</v>
+        <f>2748.2+14570.9</f>
+        <v>17319.099999999999</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>10</v>
+      <c r="K6" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -678,7 +688,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>121809.21800000002</v>
+        <v>112672.29500000001</v>
       </c>
     </row>
   </sheetData>
@@ -691,10 +701,10 @@
   <dimension ref="A1:BT398"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -744,14 +754,20 @@
         <v>17931</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3">
+        <f>+SUM(E4:E5)</f>
+        <v>18198</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
         <f>+SUM(G4:G5)</f>
         <v>18537</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <f>+SUM(I4:I5)</f>
+        <v>18734</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -824,13 +840,17 @@
         <v>10715</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>10940</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
         <v>11242</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>11453</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -903,13 +923,17 @@
         <v>7216</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>7258</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
         <v>7295</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>7281</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -983,14 +1007,20 @@
         <v>20656</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <f>+SUM(E7:E8)</f>
+        <v>21279</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
         <f>+SUM(G7:G8)</f>
         <v>22039</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <f>+SUM(I7:I8)</f>
+        <v>22363</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1063,13 +1093,17 @@
         <v>9150</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>9526</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
         <v>10083</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>10277</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1142,13 +1176,17 @@
         <v>11506</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>11753</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
         <v>11956</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>12086</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1227,7 +1265,7 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39477</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
@@ -1243,7 +1281,7 @@
       </c>
       <c r="I9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41097</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" si="1"/>
@@ -1392,13 +1430,17 @@
         <v>5678</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>5528</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
         <v>5695.9</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>5752</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1471,13 +1513,17 @@
         <v>1790.4</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>1744.5</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
         <v>1757.1</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>1787.5</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1550,13 +1596,17 @@
         <v>1929.4</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>1841.4</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
         <v>1972.3</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>1916.5</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1629,13 +1679,17 @@
         <v>7755.2</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>7516</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
         <v>7785.3</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
+        <v>7812.5</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1708,13 +1762,17 @@
         <v>1192.0999999999999</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>1129</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
         <v>1135.7</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>1105.5999999999999</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1787,13 +1845,17 @@
         <v>478</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>468.9</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
         <v>476.8</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>537.9</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1872,7 +1934,7 @@
       </c>
       <c r="E17" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9113.9</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="2"/>
@@ -1887,8 +1949,8 @@
         <v>0</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="I17" si="4">+SUM(I14:I16)</f>
+        <v>9456</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" si="3"/>
@@ -1965,13 +2027,17 @@
         <v>2980.6</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>2740.9</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3">
         <v>2893.7</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3">
+        <v>2955.5</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2044,13 +2110,17 @@
         <v>3851.5</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>3829.1</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3">
         <v>4203</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <v>4344.8</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2120,19 +2190,19 @@
         <v>25</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20:F20" si="4">+C17-C18-C19</f>
+        <f t="shared" ref="C20:F20" si="5">+C17-C18-C19</f>
         <v>2593.1999999999989</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2543.9</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G20" s="3">
@@ -2140,15 +2210,15 @@
         <v>2301.0999999999995</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" ref="H20:J20" si="5">+H17-H18-H19</f>
+        <f t="shared" ref="H20:J20" si="6">+H17-H18-H19</f>
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="I20" si="7">+I17-I18-I19</f>
+        <v>2155.6999999999998</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K20" s="3"/>
@@ -2222,13 +2292,17 @@
         <v>150.4</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>143.9</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
         <v>152.5</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>151.6</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2301,13 +2375,17 @@
         <v>365.3</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>380.4</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3">
         <v>407.6</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3">
+        <v>427.6</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -2380,13 +2458,17 @@
         <v>648</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>576</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3">
         <v>665.8</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3">
+        <v>677.2</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2459,13 +2541,18 @@
         <v>55.9</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>73.900000000000006</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3">
         <v>46.5</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3">
+        <f>57.1-20.8</f>
+        <v>36.299999999999997</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -2535,19 +2622,19 @@
         <v>29</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:F25" si="6">+C20-SUM(C21:C23)+C24</f>
+        <f t="shared" ref="C25:F25" si="8">+C20-SUM(C21:C23)+C24</f>
         <v>1485.399999999999</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1517.5000000000002</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G25" s="3">
@@ -2555,15 +2642,15 @@
         <v>1121.6999999999994</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" ref="H25:J25" si="7">+H20-SUM(H21:H23)+H24</f>
+        <f t="shared" ref="H25:J25" si="9">+H20-SUM(H21:H23)+H24</f>
         <v>0</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="I25" si="10">+I20-SUM(I21:I23)+I24</f>
+        <v>935.59999999999968</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K25" s="3"/>
@@ -2637,13 +2724,17 @@
         <v>33.799999999999997</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>28.1</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3">
         <v>27.8</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3">
+        <v>25.6</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2716,13 +2807,17 @@
         <v>140.1</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>141.30000000000001</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3">
         <v>127.2</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3">
+        <v>142.30000000000001</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2796,31 +2891,31 @@
         <v>1379.099999999999</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28:J28" si="8">+D25+D26-D27</f>
+        <f t="shared" ref="D28:J28" si="11">+D25+D26-D27</f>
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1404.3000000000002</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1022.2999999999993</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="I28" si="12">+I25+I26-I27</f>
+        <v>818.89999999999964</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K28" s="3"/>
@@ -2894,13 +2989,17 @@
         <v>354.7</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>348.6</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3">
         <v>241.4</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3">
+        <v>260.39999999999998</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2970,19 +3069,19 @@
         <v>35</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30:F30" si="9">+C28-C29</f>
+        <f t="shared" ref="C30:F30" si="13">+C28-C29</f>
         <v>1024.399999999999</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1055.7000000000003</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G30" s="3">
@@ -2990,15 +3089,15 @@
         <v>780.8999999999993</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" ref="H30:J30" si="10">+H28-H29</f>
+        <f t="shared" ref="H30:J30" si="14">+H28-H29</f>
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" ref="I30" si="15">+I28-I29</f>
+        <v>558.49999999999966</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K30" s="3"/>
@@ -3072,13 +3171,17 @@
         <v>0</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3">
+        <v>0.9</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3">
         <v>0.1</v>
       </c>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3">
+        <v>0.2</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3148,19 +3251,19 @@
         <v>37</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ref="C32:F32" si="11">+C30-C31</f>
+        <f t="shared" ref="C32:F32" si="16">+C30-C31</f>
         <v>1024.399999999999</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1054.8000000000002</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G32" s="3">
@@ -3168,15 +3271,15 @@
         <v>780.79999999999927</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" ref="H32:J32" si="12">+H30-H31</f>
+        <f t="shared" ref="H32:J32" si="17">+H30-H31</f>
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" ref="I32" si="18">+I30-I31</f>
+        <v>558.29999999999961</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K32" s="3"/>
@@ -3319,19 +3422,19 @@
         <v>38</v>
       </c>
       <c r="C34" s="9">
-        <f t="shared" ref="C34:F34" si="13">+C32/C35</f>
+        <f t="shared" ref="C34:F34" si="19">+C32/C35</f>
         <v>0.90128453281717313</v>
       </c>
       <c r="D34" s="9" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="9" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="E34" s="9">
+        <f t="shared" si="19"/>
+        <v>0.93114406779661041</v>
       </c>
       <c r="F34" s="9" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="9">
@@ -3339,15 +3442,15 @@
         <v>0.68811139508239993</v>
       </c>
       <c r="H34" s="9" t="e">
-        <f t="shared" ref="H34:J34" si="14">+H32/H35</f>
+        <f t="shared" ref="H34:J34" si="20">+H32/H35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+      <c r="I34" s="9">
+        <f t="shared" ref="I34" si="21">+I32/I35</f>
+        <v>0.4912882787750788</v>
       </c>
       <c r="J34" s="9" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="3"/>
@@ -3421,13 +3524,17 @@
         <v>1136.5999999999999</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3">
+        <v>1132.8</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="10">
         <v>1134.7</v>
       </c>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3">
+        <v>1136.4000000000001</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
